--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_1_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1728458.61179567</v>
+        <v>1726571.030279267</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>82.86725691228301</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>112.3932904856848</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250885</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.621576176023786</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>8.787420751036647</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>313.402097250776</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>157.182641433781</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9.275596830496628</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>126.3298627762803</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>49.84418647516476</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>230.6815503270428</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>14.19510348422553</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>205.3743261851594</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8.525532102719183</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>5.562624396424974</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051979</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>24.06925527567415</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>211.2541671901478</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>33.3514698018584</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2059,13 +2059,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>169.7438101404422</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2248,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>263.468283212806</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664925</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H23" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>15.98360398438608</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>6.348656829617568</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,16 +2533,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>161.8175117958949</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -2767,19 +2767,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>169.7438101404428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,22 +2950,22 @@
         <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.4122163896553</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801211</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437419</v>
+        <v>42.20569823125548</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897907</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523573</v>
+        <v>54.76109577523572</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
       </c>
       <c r="T31" t="n">
-        <v>144.3654234629339</v>
+        <v>166.3443044298322</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
         <v>196.9343866952709</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463175</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463132</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3749,10 +3749,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463137</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415218</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>885.7444020895362</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="C2" t="n">
-        <v>516.7818851491245</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="D2" t="n">
-        <v>158.516186542374</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E2" t="n">
-        <v>158.516186542374</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F2" t="n">
-        <v>151.5706857931705</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>137.6472817317614</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1662.483574129471</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1196.18634261119</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.344242153658</v>
+        <v>806.0470106353782</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961351</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424012</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673431</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152627</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>539.7920585923321</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>721.4405234225718</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R4" t="n">
-        <v>721.4405234225718</v>
+        <v>579.9823256406186</v>
       </c>
       <c r="S4" t="n">
-        <v>721.4405234225718</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T4" t="n">
-        <v>721.4405234225718</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U4" t="n">
-        <v>721.4405234225718</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V4" t="n">
-        <v>721.4405234225718</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W4" t="n">
-        <v>721.4405234225718</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X4" t="n">
-        <v>721.4405234225718</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y4" t="n">
-        <v>721.4405234225718</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2465.942913862886</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="C5" t="n">
-        <v>2096.980396922474</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="D5" t="n">
-        <v>1738.714698315724</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>1352.926445717479</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>941.9405409278718</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>523.9767328260587</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4580,37 +4580,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1916.245359491379</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1563.476704221265</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>1563.476704221265</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>1404.706359338657</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4620,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598707</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600566</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1628.293017861605</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="C8" t="n">
-        <v>1259.330500921194</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="D8" t="n">
-        <v>901.0648023144433</v>
+        <v>1251.118186271549</v>
       </c>
       <c r="E8" t="n">
-        <v>515.276549716199</v>
+        <v>865.3299336733044</v>
       </c>
       <c r="F8" t="n">
-        <v>104.2906449265915</v>
+        <v>858.3844329241009</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>440.4206248222878</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.358616186807</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.892857925727</v>
+        <v>1620.08070321196</v>
       </c>
       <c r="Y8" t="n">
-        <v>2014.892857925727</v>
+        <v>1620.08070321196</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4890,7 +4890,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4902,22 +4902,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="W10" t="n">
-        <v>684.3735766921516</v>
+        <v>261.3917961488083</v>
       </c>
       <c r="X10" t="n">
-        <v>456.3840257941342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,25 +5066,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,25 +5121,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>474.8900731662875</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1088.787142923176</v>
       </c>
       <c r="M12" t="n">
-        <v>1595.645765494011</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>1925.508393158044</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2205.048458376741</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2410.070939158951</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011509</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273992</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W13" t="n">
-        <v>554.6108700904385</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>326.6213191924212</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>105.8287400488911</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5279,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,19 +5288,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555218</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>891.4406401619858</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1075.21084526296</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>1075.21084526296</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>1050.898466196623</v>
+        <v>531.397718270632</v>
       </c>
       <c r="X16" t="n">
-        <v>822.9089152986054</v>
+        <v>318.0096706038161</v>
       </c>
       <c r="Y16" t="n">
-        <v>822.9089152986054</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5504,22 +5504,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,16 +5528,16 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5589,16 +5589,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
         <v>1198.760773441947</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952639</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>130.9054447954964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,40 +5735,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,22 +5829,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>1925.814757496976</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5917,7 +5917,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U22" t="n">
-        <v>1009.001276344574</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V22" t="n">
-        <v>754.3167881386869</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>464.8996181017263</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>464.8996181017263</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
         <v>2612.943493278838</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.2520934878793</v>
+        <v>272.5660590645741</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581962</v>
+        <v>103.6298761366672</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>731.3177283550796</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W25" t="n">
-        <v>441.900558318119</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X25" t="n">
-        <v>441.900558318119</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y25" t="n">
-        <v>441.900558318119</v>
+        <v>454.2145238948139</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6215,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1908.095276920732</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>2187.63534213943</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2392.657822921639</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028586</v>
+        <v>481.4617027208815</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028586</v>
+        <v>260.6691235773513</v>
       </c>
     </row>
     <row r="29">
@@ -6440,46 +6440,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155884</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823778</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2358.217138262064</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>695.1010933248435</v>
+        <v>439.5324299542187</v>
       </c>
       <c r="C31" t="n">
-        <v>581.9257756783073</v>
+        <v>326.3571123076827</v>
       </c>
       <c r="D31" t="n">
-        <v>487.5700015473424</v>
+        <v>232.0013381767177</v>
       </c>
       <c r="E31" t="n">
-        <v>395.41777324632</v>
+        <v>139.8491098756954</v>
       </c>
       <c r="F31" t="n">
-        <v>304.2886910297804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933501</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667509</v>
+        <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962055</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1590.829020032624</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1590.829020032624</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1391.905397108108</v>
+        <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>1158.249092352518</v>
+        <v>902.6804289818936</v>
       </c>
       <c r="X31" t="n">
-        <v>986.0204067358718</v>
+        <v>730.451743365247</v>
       </c>
       <c r="Y31" t="n">
-        <v>820.9886928737125</v>
+        <v>565.4200295030877</v>
       </c>
     </row>
     <row r="32">
@@ -6686,49 +6686,49 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>644.6755122555215</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506722</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083209</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504516</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103133</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982977</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,25 +6920,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6950,19 +6950,19 @@
         <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>816.7950850315615</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1124.115218311523</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823789</v>
@@ -7251,25 +7251,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525402</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7375,7 +7375,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7409,10 +7409,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7491,25 +7491,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7549,31 +7549,31 @@
         <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7612,7 +7612,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003443</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405199</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155909</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7661,37 +7661,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7713,40 +7713,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1818.397748747284</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2338.698370483031</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083199</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.288612901031</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719076</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>62.91120742583783</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>43.65987261462453</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627466</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9240,16 +9240,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>360.5026862907258</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9489,13 +9489,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>199.6230805871095</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,19 +9723,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>22.04402060665581</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9884,7 +9884,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119847</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9954,28 +9954,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>134.4977453535105</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,7 +10200,7 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10209,10 +10209,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>180.0237016735871</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>213.2603911806632</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627466</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>20.63789864135492</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,10 +10677,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>76.4319698833857</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,13 +11373,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>189.0022427662458</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23425,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>136.8955159202121</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>192.3581855871783</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23653,25 +23653,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>262.4537430609168</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>14.45548819888936</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>146.4805103800789</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,13 +23947,13 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>82.39383318338585</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24136,7 +24136,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>22.76906918577134</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>192.3581855871788</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>151.2632171142417</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>142.2668161885948</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,16 +24421,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>18.01446838604235</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037927</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>82.39383318338517</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>48.01209316311868</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571492</v>
+        <v>55.21598883571491</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>21.97888096689829</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>-4.405364961712621e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>906495.7753621624</v>
+        <v>906495.7753621623</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>906495.7753621623</v>
+        <v>906495.7753621622</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>906495.7753621622</v>
+        <v>906495.7753621624</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>942819.8538595532</v>
+        <v>942819.8538595531</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185697</v>
+        <v>492625.0619185698</v>
       </c>
       <c r="C2" t="n">
         <v>492625.0619185698</v>
@@ -26320,40 +26320,40 @@
         <v>492625.0619185699</v>
       </c>
       <c r="E2" t="n">
+        <v>469234.8716852501</v>
+      </c>
+      <c r="F2" t="n">
         <v>469234.8716852503</v>
       </c>
-      <c r="F2" t="n">
-        <v>469234.8716852505</v>
-      </c>
       <c r="G2" t="n">
-        <v>469234.8716852504</v>
+        <v>469234.8716852503</v>
       </c>
       <c r="H2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="I2" t="n">
-        <v>469234.8716852503</v>
+        <v>469234.8716852504</v>
       </c>
       <c r="J2" t="n">
         <v>469234.8716852504</v>
       </c>
       <c r="K2" t="n">
-        <v>488186.5648143235</v>
+        <v>488186.5648143237</v>
       </c>
       <c r="L2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="M2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="N2" t="n">
+        <v>492625.0619185702</v>
+      </c>
+      <c r="O2" t="n">
+        <v>492625.0619185701</v>
+      </c>
+      <c r="P2" t="n">
         <v>492625.06191857</v>
-      </c>
-      <c r="M2" t="n">
-        <v>492625.0619185701</v>
-      </c>
-      <c r="N2" t="n">
-        <v>492625.0619185703</v>
-      </c>
-      <c r="O2" t="n">
-        <v>492625.0619185703</v>
-      </c>
-      <c r="P2" t="n">
-        <v>492625.0619185701</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925931</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284561</v>
+        <v>44162.60530284567</v>
       </c>
       <c r="L3" t="n">
         <v>10342.90680086688</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284562</v>
+        <v>44162.60530284583</v>
       </c>
     </row>
     <row r="4">
@@ -26424,22 +26424,22 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007545</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007525</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007485</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007538</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007497</v>
+        <v>7916.731656007498</v>
       </c>
       <c r="K4" t="n">
         <v>26081.35417020402</v>
@@ -26448,16 +26448,16 @@
         <v>30335.51889732797</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
+        <v>30335.51889732798</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732797</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732795</v>
       </c>
     </row>
     <row r="5">
@@ -26467,49 +26467,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-328118.944075305</v>
+        <v>-328118.9440753051</v>
       </c>
       <c r="C6" t="n">
         <v>261848.9351392395</v>
@@ -26528,28 +26528,28 @@
         <v>261848.9351392396</v>
       </c>
       <c r="E6" t="n">
-        <v>-155829.2223963701</v>
+        <v>-155926.6815223423</v>
       </c>
       <c r="F6" t="n">
-        <v>369330.8140805264</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="G6" t="n">
-        <v>369330.8140805264</v>
+        <v>369233.3549545539</v>
       </c>
       <c r="H6" t="n">
-        <v>369330.8140805263</v>
+        <v>369233.3549545542</v>
       </c>
       <c r="I6" t="n">
-        <v>369330.8140805261</v>
+        <v>369233.3549545541</v>
       </c>
       <c r="J6" t="n">
-        <v>192907.5948879333</v>
+        <v>192810.135761961</v>
       </c>
       <c r="K6" t="n">
-        <v>321314.3968110511</v>
+        <v>321295.9030731168</v>
       </c>
       <c r="L6" t="n">
-        <v>354231.5304003498</v>
+        <v>354231.5304003499</v>
       </c>
       <c r="M6" t="n">
         <v>229773.4219673797</v>
@@ -26558,10 +26558,10 @@
         <v>364574.4372012169</v>
       </c>
       <c r="O6" t="n">
-        <v>364574.4372012169</v>
+        <v>364574.4372012167</v>
       </c>
       <c r="P6" t="n">
-        <v>320411.8318983712</v>
+        <v>320411.8318983708</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541002</v>
@@ -26777,7 +26777,7 @@
         <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L2" t="n">
         <v>12.9286335010836</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855702</v>
+        <v>55.2032566285571</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855701</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27391,13 +27391,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0555158520741</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>257.3378101927842</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>22.50117377889052</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>203.3581181989823</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>10.52067551358112</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>229.0552972222726</v>
       </c>
     </row>
     <row r="6">
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>125.6900249618416</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>20.33532920387754</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>363.9399835456302</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>93.24122243731435</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,19 +28065,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>272.3278948523655</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>20.33532920387771</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>1.350599632132798e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30469,10 +30469,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,22 +31045,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
         <v>255.8615389119866</v>
@@ -31069,19 +31069,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31239,7 +31239,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,46 +31279,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31455,28 +31455,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34533,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770693</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624588</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,10 +35094,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
         <v>146.3614835535656</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35258,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35489,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>213.4866460137771</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>215.6591577951388</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>326.0235748557327</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
         <v>570.6060255109123</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>384.9870895382561</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>670.927063341192</v>
       </c>
       <c r="N18" t="n">
         <v>333.1945733980128</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
@@ -36209,13 +36209,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>406.7164955186342</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,22 +36443,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>355.2385940046686</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,16 +36595,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O26" t="n">
         <v>713.1546070951472</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>222.5107781385846</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.0367344586612</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37002,7 +37002,7 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403578</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,25 +37145,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>384.9870895382559</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>462.5180961366875</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37318,7 +37318,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P35" t="n">
         <v>570.6060255109123</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>269.8956035973792</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37397,10 +37397,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>487.1420318003117</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>409.6265432813985</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520614</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,28 +38017,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>277.01527555132</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520624</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095693</v>
       </c>
       <c r="M46" t="n">
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352444</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
